--- a/biology/Botanique/Square_Héloïse-et-Abélard/Square_Héloïse-et-Abélard.xlsx
+++ b/biology/Botanique/Square_Héloïse-et-Abélard/Square_Héloïse-et-Abélard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_H%C3%A9lo%C3%AFse-et-Ab%C3%A9lard</t>
+          <t>Square_Héloïse-et-Abélard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Héloïse-et-Abélard est un square du 13e arrondissement de Paris, dans le quartier de la Gare. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_H%C3%A9lo%C3%AFse-et-Ab%C3%A9lard</t>
+          <t>Square_Héloïse-et-Abélard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est bordé par les rues Dunois et Duchefdelaville et par les rues piétonnes Pierre-Gourdault et de Vimoutiers.
 Il est accessible par la ligne 6 à la station Chevaleret, par la ligne 14 à la station Bibliothèque François-Mitterrand et par la ligne C du RER à la gare de la Bibliothèque François-Mitterrand.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Square_H%C3%A9lo%C3%AFse-et-Ab%C3%A9lard</t>
+          <t>Square_Héloïse-et-Abélard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au milieu du square se trouve la Maison de cinq sens, ancienne maison de campagne où sont désormais organisés des ateliers pour les écoliers[1]. Le pignon aveugle de la Maison de cinq sens est agrémenté d'une installation de l'artiste Jean-Max Albert, Une horloge végétale. Le cartel d'une horloge est figuré par un cercle en réserve dans un treillage métallique. Trois qualités de plantes, un Polygonum, un chèvrefeuille et une glycine, ne suivent pas exactement le tracé du cadran mais donnent l'heure végétale en se déplaçant à leur vitesse de croissance respectives.
-Le square est doté d'un pavillon de compostage de quartier, issu de la démocratie participative[2],[3], inauguré en juin 2015, pour accueillir les apports de restes végétaux compostables de 200 foyers volontaires riverains.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au milieu du square se trouve la Maison de cinq sens, ancienne maison de campagne où sont désormais organisés des ateliers pour les écoliers. Le pignon aveugle de la Maison de cinq sens est agrémenté d'une installation de l'artiste Jean-Max Albert, Une horloge végétale. Le cartel d'une horloge est figuré par un cercle en réserve dans un treillage métallique. Trois qualités de plantes, un Polygonum, un chèvrefeuille et une glycine, ne suivent pas exactement le tracé du cadran mais donnent l'heure végétale en se déplaçant à leur vitesse de croissance respectives.
+Le square est doté d'un pavillon de compostage de quartier, issu de la démocratie participative inauguré en juin 2015, pour accueillir les apports de restes végétaux compostables de 200 foyers volontaires riverains.
 			Une horloge végétale, Jean-Max Albert en 2015.
 			Panneau d'information sur le square.
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Square_H%C3%A9lo%C3%AFse-et-Ab%C3%A9lard</t>
+          <t>Square_Héloïse-et-Abélard</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il porte les noms des célèbres amants Héloïse et Abélard, dont le couple symbolise la passion amoureuse victorieuse des contraintes religieuses et humaines.
 </t>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Square_H%C3%A9lo%C3%AFse-et-Ab%C3%A9lard</t>
+          <t>Square_Héloïse-et-Abélard</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square a été ouvert en 1991.
 </t>
